--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610112.424502823</v>
+        <v>1607860.344791615</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283202</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848357</v>
+        <v>10437581.96848356</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.29515656310216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>10.03076501615318</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9399385984254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>17.35112070699554</v>
+        <v>258.6919098036066</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.82926262591542</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>232.6961289392736</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>21.35866177150499</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>70.58974991479204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>35.8864194913564</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45703212905079</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>111.5056986361882</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>80.08971311158706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790609</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788183434</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>14.73874327217517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.6910841413358</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>2.607010073152018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274568</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946283</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>180.9726497471651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4325,19 +4325,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818513</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.1870662708825</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>320.1870662708825</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>320.1870662708825</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>320.1870662708825</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>320.1870662708825</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>320.1870662708825</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>320.1870662708825</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>320.1870662708825</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>320.1870662708825</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.1870662708825</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4768,7 +4768,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>731.582875291813</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>345.7946226935688</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>338.8491219443653</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0353997452355</v>
+        <v>327.8170758297659</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>662.120365647806</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>512.0037262354703</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0906326530771</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>217.2006851551668</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,16 +5075,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>130.0655716250996</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>983.3556038098278</v>
       </c>
       <c r="C22" t="n">
-        <v>733.4550657171301</v>
+        <v>814.4194208819209</v>
       </c>
       <c r="D22" t="n">
-        <v>583.3384263047943</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>435.4253327224012</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>288.5353852244908</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797782</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924463</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718576</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681615</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783598</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1165.004068640068</v>
       </c>
     </row>
     <row r="23">
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
         <v>1520.445529061503</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,13 +6242,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>565.7099969556945</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782988</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038375</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,13 +6449,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,49 +6464,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876729</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.963121559766</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.963121559766</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297712</v>
+        <v>411.963121559766</v>
       </c>
       <c r="F31" t="n">
-        <v>197.0043242297712</v>
+        <v>411.963121559766</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>244.767022274646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168441</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.32989935946</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614428</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179126</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,19 +6710,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1063.573343591573</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>894.6371606636665</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>744.5205212513307</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1245.221808421813</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,37 +7713,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X46" t="n">
-        <v>961.4835393015907</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.6909601580605</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -23255,67 +23255,67 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>264.8258126177391</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.84421273177713</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>45.37941682720912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>114.1584408891616</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>54.0184396560806</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>46.45968844822738</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>34.74287850523341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.22040037418775</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193026</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687966</v>
@@ -26433,28 +26433,28 @@
         <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812541</v>
+        <v>-996598.2799812543</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463385</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036216</v>
+        <v>82638.92023492635</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.119967717</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677169</v>
+        <v>408051.382042281</v>
       </c>
       <c r="H6" t="n">
-        <v>408086.1199677171</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="I6" t="n">
-        <v>408086.1199677171</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="J6" t="n">
-        <v>190554.9175704396</v>
+        <v>190520.179645004</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.1199677173</v>
+        <v>408051.3820422816</v>
       </c>
       <c r="L6" t="n">
-        <v>408086.119967717</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="M6" t="n">
-        <v>323031.0920322054</v>
+        <v>322996.3541067697</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.119967717</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422814</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26805,19 +26805,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4386851003784</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.9950432428751</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>53.79116208004359</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754824</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>277.2566436803249</v>
+        <v>35.91585458371384</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>113.1965456331128</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.33664536598317e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-4.63134280015893e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-2.781664827927254e-14</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>616.3752871594859</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>223.6976288294628</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>473.7790427150414</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319135</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295643</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>81.10138438501835</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010488</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096335</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315843</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
